--- a/Data/Raw/Team CAP.xlsx
+++ b/Data/Raw/Team CAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adcsuf-my.sharepoint.com/personal/rgivens7_csu_fullerton_edu/Documents/R Studio/340 - Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adcsuf-my.sharepoint.com/personal/rgivens7_csu_fullerton_edu/Documents/ECON 499/Nfl-Injuries/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{46EFE643-792B-43EE-A27A-7C675D5165A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0AD2878-E7BC-44FC-9736-0202AE4CC17F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{46EFE643-792B-43EE-A27A-7C675D5165A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{977F9A71-D43F-2E4C-8968-AFAD2D806855}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_cap_data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="46">
   <si>
     <t>Rank</t>
   </si>
@@ -183,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF696969"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF696969"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -623,7 +644,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -666,13 +687,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -706,6 +732,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -729,14 +756,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -774,7 +797,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -880,7 +903,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,26 +1053,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130:J161"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194:J225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1113,7 +1136,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1145,7 +1168,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1177,7 +1200,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1241,7 +1264,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1273,7 +1296,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1305,7 +1328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1337,7 +1360,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1369,7 +1392,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1401,7 +1424,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1433,7 +1456,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1465,7 +1488,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1497,7 +1520,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1529,7 +1552,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1561,7 +1584,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1593,7 +1616,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1657,7 +1680,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1721,7 +1744,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1785,7 +1808,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1817,7 +1840,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1849,7 +1872,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1881,7 +1904,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1913,7 +1936,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1945,7 +1968,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1977,7 +2000,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2009,7 +2032,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2041,7 +2064,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2073,7 +2096,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2105,7 +2128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2137,7 +2160,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -2169,7 +2192,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -2201,7 +2224,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -2233,7 +2256,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -2265,7 +2288,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>6</v>
       </c>
@@ -2297,7 +2320,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -2329,7 +2352,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -2361,7 +2384,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -2393,7 +2416,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -2425,7 +2448,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -2457,7 +2480,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -2489,7 +2512,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>13</v>
       </c>
@@ -2521,7 +2544,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>14</v>
       </c>
@@ -2553,7 +2576,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>15</v>
       </c>
@@ -2585,7 +2608,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -2617,7 +2640,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>17</v>
       </c>
@@ -2649,7 +2672,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>18</v>
       </c>
@@ -2681,7 +2704,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>19</v>
       </c>
@@ -2713,7 +2736,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>20</v>
       </c>
@@ -2745,7 +2768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21</v>
       </c>
@@ -2777,7 +2800,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>22</v>
       </c>
@@ -2809,7 +2832,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>23</v>
       </c>
@@ -2841,7 +2864,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -2873,7 +2896,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -2905,7 +2928,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>26</v>
       </c>
@@ -2937,7 +2960,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>27</v>
       </c>
@@ -2969,7 +2992,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>28</v>
       </c>
@@ -3001,7 +3024,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>29</v>
       </c>
@@ -3033,7 +3056,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>30</v>
       </c>
@@ -3065,7 +3088,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>31</v>
       </c>
@@ -3097,7 +3120,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>32</v>
       </c>
@@ -3129,7 +3152,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -3161,7 +3184,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3193,7 +3216,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -3225,7 +3248,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>4</v>
       </c>
@@ -3257,7 +3280,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>5</v>
       </c>
@@ -3289,7 +3312,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>6</v>
       </c>
@@ -3321,7 +3344,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>7</v>
       </c>
@@ -3353,7 +3376,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>8</v>
       </c>
@@ -3385,7 +3408,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>9</v>
       </c>
@@ -3417,7 +3440,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>10</v>
       </c>
@@ -3449,7 +3472,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>11</v>
       </c>
@@ -3481,7 +3504,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>12</v>
       </c>
@@ -3513,7 +3536,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>13</v>
       </c>
@@ -3545,7 +3568,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>14</v>
       </c>
@@ -3577,7 +3600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>15</v>
       </c>
@@ -3609,7 +3632,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>16</v>
       </c>
@@ -3641,7 +3664,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>17</v>
       </c>
@@ -3673,7 +3696,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>18</v>
       </c>
@@ -3705,7 +3728,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>19</v>
       </c>
@@ -3737,7 +3760,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>20</v>
       </c>
@@ -3769,7 +3792,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>21</v>
       </c>
@@ -3801,7 +3824,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>22</v>
       </c>
@@ -3833,7 +3856,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>23</v>
       </c>
@@ -3865,7 +3888,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>24</v>
       </c>
@@ -3897,7 +3920,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>25</v>
       </c>
@@ -3929,7 +3952,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>26</v>
       </c>
@@ -3961,7 +3984,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>27</v>
       </c>
@@ -3993,7 +4016,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>28</v>
       </c>
@@ -4025,7 +4048,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>29</v>
       </c>
@@ -4057,7 +4080,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>30</v>
       </c>
@@ -4089,7 +4112,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>31</v>
       </c>
@@ -4121,7 +4144,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -4153,7 +4176,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -4185,7 +4208,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -4217,7 +4240,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -4249,7 +4272,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -4281,7 +4304,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>5</v>
       </c>
@@ -4313,7 +4336,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -4345,7 +4368,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>7</v>
       </c>
@@ -4377,7 +4400,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -4409,7 +4432,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>9</v>
       </c>
@@ -4441,7 +4464,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>10</v>
       </c>
@@ -4473,7 +4496,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>11</v>
       </c>
@@ -4505,7 +4528,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>12</v>
       </c>
@@ -4537,7 +4560,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>13</v>
       </c>
@@ -4569,7 +4592,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -4601,7 +4624,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>15</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>16</v>
       </c>
@@ -4665,7 +4688,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>17</v>
       </c>
@@ -4697,7 +4720,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>18</v>
       </c>
@@ -4729,7 +4752,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>19</v>
       </c>
@@ -4761,7 +4784,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>20</v>
       </c>
@@ -4793,7 +4816,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>21</v>
       </c>
@@ -4825,7 +4848,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>22</v>
       </c>
@@ -4857,7 +4880,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>23</v>
       </c>
@@ -4889,7 +4912,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>24</v>
       </c>
@@ -4921,7 +4944,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>25</v>
       </c>
@@ -4953,7 +4976,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>26</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>27</v>
       </c>
@@ -5017,7 +5040,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>28</v>
       </c>
@@ -5049,7 +5072,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>29</v>
       </c>
@@ -5081,7 +5104,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>30</v>
       </c>
@@ -5113,7 +5136,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>31</v>
       </c>
@@ -5145,7 +5168,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -5177,7 +5200,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -5209,7 +5232,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -5241,7 +5264,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>3</v>
       </c>
@@ -5273,7 +5296,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>4</v>
       </c>
@@ -5305,7 +5328,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>5</v>
       </c>
@@ -5337,7 +5360,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>6</v>
       </c>
@@ -5369,7 +5392,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>7</v>
       </c>
@@ -5401,7 +5424,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -5433,7 +5456,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>9</v>
       </c>
@@ -5465,7 +5488,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>10</v>
       </c>
@@ -5497,7 +5520,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>11</v>
       </c>
@@ -5529,7 +5552,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>12</v>
       </c>
@@ -5561,7 +5584,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>13</v>
       </c>
@@ -5593,7 +5616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>14</v>
       </c>
@@ -5625,7 +5648,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>15</v>
       </c>
@@ -5657,7 +5680,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>16</v>
       </c>
@@ -5689,7 +5712,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>17</v>
       </c>
@@ -5721,7 +5744,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>18</v>
       </c>
@@ -5753,7 +5776,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>19</v>
       </c>
@@ -5785,7 +5808,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>20</v>
       </c>
@@ -5817,7 +5840,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>21</v>
       </c>
@@ -5849,7 +5872,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>22</v>
       </c>
@@ -5881,7 +5904,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>23</v>
       </c>
@@ -5913,7 +5936,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>24</v>
       </c>
@@ -5945,7 +5968,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>25</v>
       </c>
@@ -5977,7 +6000,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>26</v>
       </c>
@@ -6009,7 +6032,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>27</v>
       </c>
@@ -6041,7 +6064,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>28</v>
       </c>
@@ -6073,7 +6096,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>29</v>
       </c>
@@ -6105,7 +6128,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>30</v>
       </c>
@@ -6137,7 +6160,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>31</v>
       </c>
@@ -6169,7 +6192,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>32</v>
       </c>
@@ -6199,6 +6222,2054 @@
       </c>
       <c r="J161" s="1">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>1</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="3">
+        <v>53</v>
+      </c>
+      <c r="E162" s="3">
+        <v>25.32</v>
+      </c>
+      <c r="F162" s="5">
+        <v>87789968</v>
+      </c>
+      <c r="G162" s="5">
+        <v>21765907</v>
+      </c>
+      <c r="H162" s="5">
+        <v>129184374</v>
+      </c>
+      <c r="I162" s="6">
+        <v>22591120</v>
+      </c>
+      <c r="J162" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>2</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="3">
+        <v>55</v>
+      </c>
+      <c r="E163" s="3">
+        <v>25.82</v>
+      </c>
+      <c r="F163" s="5">
+        <v>97109089</v>
+      </c>
+      <c r="G163" s="5">
+        <v>20541725</v>
+      </c>
+      <c r="H163" s="5">
+        <v>135401214</v>
+      </c>
+      <c r="I163" s="6">
+        <v>21516542</v>
+      </c>
+      <c r="J163" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>3</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="3">
+        <v>53</v>
+      </c>
+      <c r="E164" s="3">
+        <v>26.26</v>
+      </c>
+      <c r="F164" s="5">
+        <v>93006628</v>
+      </c>
+      <c r="G164" s="5">
+        <v>19245928</v>
+      </c>
+      <c r="H164" s="5">
+        <v>118345094</v>
+      </c>
+      <c r="I164" s="6">
+        <v>15764146</v>
+      </c>
+      <c r="J164" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>4</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="3">
+        <v>52</v>
+      </c>
+      <c r="E165" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F165" s="5">
+        <v>109773474</v>
+      </c>
+      <c r="G165" s="5">
+        <v>10210533</v>
+      </c>
+      <c r="H165" s="5">
+        <v>134781802</v>
+      </c>
+      <c r="I165" s="6">
+        <v>14518147</v>
+      </c>
+      <c r="J165" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>5</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" s="3">
+        <v>54</v>
+      </c>
+      <c r="E166" s="3">
+        <v>26.72</v>
+      </c>
+      <c r="F166" s="5">
+        <v>90812712</v>
+      </c>
+      <c r="G166" s="5">
+        <v>12688893</v>
+      </c>
+      <c r="H166" s="5">
+        <v>127601550</v>
+      </c>
+      <c r="I166" s="6">
+        <v>11304261</v>
+      </c>
+      <c r="J166" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>6</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" s="3">
+        <v>55</v>
+      </c>
+      <c r="E167" s="3">
+        <v>26.53</v>
+      </c>
+      <c r="F167" s="5">
+        <v>115809145</v>
+      </c>
+      <c r="G167" s="5">
+        <v>5142081</v>
+      </c>
+      <c r="H167" s="5">
+        <v>131642102</v>
+      </c>
+      <c r="I167" s="6">
+        <v>10021378</v>
+      </c>
+      <c r="J167" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="3">
+        <v>52</v>
+      </c>
+      <c r="E168" s="3">
+        <v>27.15</v>
+      </c>
+      <c r="F168" s="5">
+        <v>95599118</v>
+      </c>
+      <c r="G168" s="5">
+        <v>5902931</v>
+      </c>
+      <c r="H168" s="5">
+        <v>123726021</v>
+      </c>
+      <c r="I168" s="6">
+        <v>9627074</v>
+      </c>
+      <c r="J168" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>8</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" s="3">
+        <v>51</v>
+      </c>
+      <c r="E169" s="3">
+        <v>26.18</v>
+      </c>
+      <c r="F169" s="5">
+        <v>104746850</v>
+      </c>
+      <c r="G169" s="5">
+        <v>8367964</v>
+      </c>
+      <c r="H169" s="5">
+        <v>142455998</v>
+      </c>
+      <c r="I169" s="6">
+        <v>8166415</v>
+      </c>
+      <c r="J169" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>9</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D170" s="3">
+        <v>54</v>
+      </c>
+      <c r="E170" s="3">
+        <v>25.91</v>
+      </c>
+      <c r="F170" s="5">
+        <v>123610693</v>
+      </c>
+      <c r="G170" s="5">
+        <v>5477890</v>
+      </c>
+      <c r="H170" s="5">
+        <v>134037242</v>
+      </c>
+      <c r="I170" s="6">
+        <v>7783967</v>
+      </c>
+      <c r="J170" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>10</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D171" s="3">
+        <v>52</v>
+      </c>
+      <c r="E171" s="3">
+        <v>26.25</v>
+      </c>
+      <c r="F171" s="5">
+        <v>96142927</v>
+      </c>
+      <c r="G171" s="5">
+        <v>14865768</v>
+      </c>
+      <c r="H171" s="5">
+        <v>124870620</v>
+      </c>
+      <c r="I171" s="6">
+        <v>6715305</v>
+      </c>
+      <c r="J171" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>11</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" s="3">
+        <v>55</v>
+      </c>
+      <c r="E172" s="3">
+        <v>26.55</v>
+      </c>
+      <c r="F172" s="5">
+        <v>78110193</v>
+      </c>
+      <c r="G172" s="5">
+        <v>17835002</v>
+      </c>
+      <c r="H172" s="5">
+        <v>124442456</v>
+      </c>
+      <c r="I172" s="6">
+        <v>6465447</v>
+      </c>
+      <c r="J172" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>12</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173" s="3">
+        <v>54</v>
+      </c>
+      <c r="E173" s="3">
+        <v>26.07</v>
+      </c>
+      <c r="F173" s="5">
+        <v>96775515</v>
+      </c>
+      <c r="G173" s="5">
+        <v>17968453</v>
+      </c>
+      <c r="H173" s="5">
+        <v>130434083</v>
+      </c>
+      <c r="I173" s="6">
+        <v>5432457</v>
+      </c>
+      <c r="J173" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>13</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D174" s="3">
+        <v>53</v>
+      </c>
+      <c r="E174" s="3">
+        <v>26.34</v>
+      </c>
+      <c r="F174" s="5">
+        <v>88019888</v>
+      </c>
+      <c r="G174" s="5">
+        <v>27093734</v>
+      </c>
+      <c r="H174" s="5">
+        <v>133399423</v>
+      </c>
+      <c r="I174" s="6">
+        <v>5275511</v>
+      </c>
+      <c r="J174" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>14</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D175" s="3">
+        <v>54</v>
+      </c>
+      <c r="E175" s="3">
+        <v>26.31</v>
+      </c>
+      <c r="F175" s="5">
+        <v>109964588</v>
+      </c>
+      <c r="G175" s="5">
+        <v>18665581</v>
+      </c>
+      <c r="H175" s="5">
+        <v>134321836</v>
+      </c>
+      <c r="I175" s="6">
+        <v>4787215</v>
+      </c>
+      <c r="J175" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>15</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" s="3">
+        <v>53</v>
+      </c>
+      <c r="E176" s="3">
+        <v>26.58</v>
+      </c>
+      <c r="F176" s="5">
+        <v>91263936</v>
+      </c>
+      <c r="G176" s="5">
+        <v>10210497</v>
+      </c>
+      <c r="H176" s="5">
+        <v>131507823</v>
+      </c>
+      <c r="I176" s="6">
+        <v>3975960</v>
+      </c>
+      <c r="J176" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>16</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D177" s="3">
+        <v>51</v>
+      </c>
+      <c r="E177" s="3">
+        <v>26.14</v>
+      </c>
+      <c r="F177" s="5">
+        <v>87696782</v>
+      </c>
+      <c r="G177" s="5">
+        <v>28302882</v>
+      </c>
+      <c r="H177" s="5">
+        <v>130227376</v>
+      </c>
+      <c r="I177" s="6">
+        <v>3647552</v>
+      </c>
+      <c r="J177" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>17</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D178" s="3">
+        <v>54</v>
+      </c>
+      <c r="E178" s="3">
+        <v>25.63</v>
+      </c>
+      <c r="F178" s="5">
+        <v>88042001</v>
+      </c>
+      <c r="G178" s="5">
+        <v>8766804</v>
+      </c>
+      <c r="H178" s="5">
+        <v>130020129</v>
+      </c>
+      <c r="I178" s="6">
+        <v>3515388</v>
+      </c>
+      <c r="J178" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>18</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D179" s="3">
+        <v>53</v>
+      </c>
+      <c r="E179" s="3">
+        <v>25.98</v>
+      </c>
+      <c r="F179" s="5">
+        <v>110273422</v>
+      </c>
+      <c r="G179" s="5">
+        <v>27015831</v>
+      </c>
+      <c r="H179" s="5">
+        <v>147684870</v>
+      </c>
+      <c r="I179" s="6">
+        <v>2899870</v>
+      </c>
+      <c r="J179" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>19</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180" s="3">
+        <v>54</v>
+      </c>
+      <c r="E180" s="3">
+        <v>26.61</v>
+      </c>
+      <c r="F180" s="5">
+        <v>103552592</v>
+      </c>
+      <c r="G180" s="5">
+        <v>11065205</v>
+      </c>
+      <c r="H180" s="5">
+        <v>133009495</v>
+      </c>
+      <c r="I180" s="6">
+        <v>2734439</v>
+      </c>
+      <c r="J180" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>20</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D181" s="3">
+        <v>54</v>
+      </c>
+      <c r="E181" s="3">
+        <v>26.44</v>
+      </c>
+      <c r="F181" s="5">
+        <v>93308619</v>
+      </c>
+      <c r="G181" s="5">
+        <v>15708766</v>
+      </c>
+      <c r="H181" s="5">
+        <v>133228945</v>
+      </c>
+      <c r="I181" s="6">
+        <v>2626620</v>
+      </c>
+      <c r="J181" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>21</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D182" s="3">
+        <v>53</v>
+      </c>
+      <c r="E182" s="3">
+        <v>26.06</v>
+      </c>
+      <c r="F182" s="5">
+        <v>97907252</v>
+      </c>
+      <c r="G182" s="5">
+        <v>20990794</v>
+      </c>
+      <c r="H182" s="5">
+        <v>132043412</v>
+      </c>
+      <c r="I182" s="6">
+        <v>2419818</v>
+      </c>
+      <c r="J182" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>22</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D183" s="3">
+        <v>53</v>
+      </c>
+      <c r="E183" s="3">
+        <v>26.68</v>
+      </c>
+      <c r="F183" s="5">
+        <v>113996593</v>
+      </c>
+      <c r="G183" s="5">
+        <v>13435466</v>
+      </c>
+      <c r="H183" s="5">
+        <v>131947647</v>
+      </c>
+      <c r="I183" s="6">
+        <v>2300803</v>
+      </c>
+      <c r="J183" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>23</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" s="3">
+        <v>53</v>
+      </c>
+      <c r="E184" s="3">
+        <v>25.89</v>
+      </c>
+      <c r="F184" s="5">
+        <v>94061905</v>
+      </c>
+      <c r="G184" s="5">
+        <v>13814575</v>
+      </c>
+      <c r="H184" s="5">
+        <v>137116892</v>
+      </c>
+      <c r="I184" s="6">
+        <v>2219889</v>
+      </c>
+      <c r="J184" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>24</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" s="3">
+        <v>53</v>
+      </c>
+      <c r="E185" s="3">
+        <v>26.23</v>
+      </c>
+      <c r="F185" s="5">
+        <v>96516582</v>
+      </c>
+      <c r="G185" s="5">
+        <v>9407748</v>
+      </c>
+      <c r="H185" s="5">
+        <v>132717955</v>
+      </c>
+      <c r="I185" s="6">
+        <v>1750188</v>
+      </c>
+      <c r="J185" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>25</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D186" s="3">
+        <v>54</v>
+      </c>
+      <c r="E186" s="3">
+        <v>26.39</v>
+      </c>
+      <c r="F186" s="5">
+        <v>81640084</v>
+      </c>
+      <c r="G186" s="5">
+        <v>18280705</v>
+      </c>
+      <c r="H186" s="5">
+        <v>131432644</v>
+      </c>
+      <c r="I186" s="6">
+        <v>1574311</v>
+      </c>
+      <c r="J186" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>26</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D187" s="3">
+        <v>52</v>
+      </c>
+      <c r="E187" s="3">
+        <v>26.27</v>
+      </c>
+      <c r="F187" s="5">
+        <v>120462699</v>
+      </c>
+      <c r="G187" s="5">
+        <v>9683329</v>
+      </c>
+      <c r="H187" s="5">
+        <v>135140526</v>
+      </c>
+      <c r="I187" s="6">
+        <v>1109172</v>
+      </c>
+      <c r="J187" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>27</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D188" s="3">
+        <v>54</v>
+      </c>
+      <c r="E188" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="F188" s="5">
+        <v>101345281</v>
+      </c>
+      <c r="G188" s="5">
+        <v>16327000</v>
+      </c>
+      <c r="H188" s="5">
+        <v>131772234</v>
+      </c>
+      <c r="I188" s="6">
+        <v>1012683</v>
+      </c>
+      <c r="J188" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>28</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189" s="3">
+        <v>54</v>
+      </c>
+      <c r="E189" s="3">
+        <v>26.76</v>
+      </c>
+      <c r="F189" s="5">
+        <v>94825621</v>
+      </c>
+      <c r="G189" s="5">
+        <v>16440510</v>
+      </c>
+      <c r="H189" s="5">
+        <v>134236725</v>
+      </c>
+      <c r="I189" s="6">
+        <v>891116</v>
+      </c>
+      <c r="J189" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>29</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190" s="3">
+        <v>53</v>
+      </c>
+      <c r="E190" s="3">
+        <v>25.55</v>
+      </c>
+      <c r="F190" s="5">
+        <v>91476742</v>
+      </c>
+      <c r="G190" s="5">
+        <v>8402953</v>
+      </c>
+      <c r="H190" s="5">
+        <v>131027131</v>
+      </c>
+      <c r="I190" s="6">
+        <v>796398</v>
+      </c>
+      <c r="J190" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>30</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" s="3">
+        <v>54</v>
+      </c>
+      <c r="E191" s="3">
+        <v>26.41</v>
+      </c>
+      <c r="F191" s="5">
+        <v>84943487</v>
+      </c>
+      <c r="G191" s="5">
+        <v>12642349</v>
+      </c>
+      <c r="H191" s="5">
+        <v>131935198</v>
+      </c>
+      <c r="I191" s="6">
+        <v>80748</v>
+      </c>
+      <c r="J191" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>31</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" s="3">
+        <v>54</v>
+      </c>
+      <c r="E192" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="F192" s="5">
+        <v>112293516</v>
+      </c>
+      <c r="G192" s="5">
+        <v>9379143</v>
+      </c>
+      <c r="H192" s="5">
+        <v>132391778</v>
+      </c>
+      <c r="I192" s="6">
+        <v>-169226</v>
+      </c>
+      <c r="J192" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>32</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D193" s="3">
+        <v>53</v>
+      </c>
+      <c r="E193" s="3">
+        <v>26.19</v>
+      </c>
+      <c r="F193" s="5">
+        <v>89595971</v>
+      </c>
+      <c r="G193" s="5">
+        <v>16633031</v>
+      </c>
+      <c r="H193" s="5">
+        <v>132411712</v>
+      </c>
+      <c r="I193" s="6">
+        <v>-750444</v>
+      </c>
+      <c r="J193" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>1</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194" s="3">
+        <v>52</v>
+      </c>
+      <c r="E194" s="3">
+        <v>25.29</v>
+      </c>
+      <c r="F194" s="5">
+        <v>80881583</v>
+      </c>
+      <c r="G194" s="5">
+        <v>13777043</v>
+      </c>
+      <c r="H194" s="5">
+        <v>110066758</v>
+      </c>
+      <c r="I194" s="6">
+        <v>28145707</v>
+      </c>
+      <c r="J194" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>2</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" s="3">
+        <v>53</v>
+      </c>
+      <c r="E195" s="3">
+        <v>25.32</v>
+      </c>
+      <c r="F195" s="5">
+        <v>66805513</v>
+      </c>
+      <c r="G195" s="5">
+        <v>35388734</v>
+      </c>
+      <c r="H195" s="5">
+        <v>120190441</v>
+      </c>
+      <c r="I195" s="6">
+        <v>25972675</v>
+      </c>
+      <c r="J195" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>3</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D196" s="3">
+        <v>53</v>
+      </c>
+      <c r="E196" s="3">
+        <v>26.13</v>
+      </c>
+      <c r="F196" s="5">
+        <v>108049086</v>
+      </c>
+      <c r="G196" s="5">
+        <v>12059097</v>
+      </c>
+      <c r="H196" s="5">
+        <v>126997784</v>
+      </c>
+      <c r="I196" s="6">
+        <v>20416885</v>
+      </c>
+      <c r="J196" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>4</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197" s="3">
+        <v>55</v>
+      </c>
+      <c r="E197" s="3">
+        <v>26</v>
+      </c>
+      <c r="F197" s="5">
+        <v>93306218</v>
+      </c>
+      <c r="G197" s="5">
+        <v>18337408</v>
+      </c>
+      <c r="H197" s="5">
+        <v>115151649</v>
+      </c>
+      <c r="I197" s="6">
+        <v>18626769</v>
+      </c>
+      <c r="J197" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>5</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D198" s="3">
+        <v>53</v>
+      </c>
+      <c r="E198" s="3">
+        <v>26.11</v>
+      </c>
+      <c r="F198" s="5">
+        <v>81123929</v>
+      </c>
+      <c r="G198" s="5">
+        <v>12900362</v>
+      </c>
+      <c r="H198" s="5">
+        <v>112354370</v>
+      </c>
+      <c r="I198" s="6">
+        <v>16972957</v>
+      </c>
+      <c r="J198" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>6</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D199" s="3">
+        <v>53</v>
+      </c>
+      <c r="E199" s="3">
+        <v>26.96</v>
+      </c>
+      <c r="F199" s="5">
+        <v>72439817</v>
+      </c>
+      <c r="G199" s="5">
+        <v>18630934</v>
+      </c>
+      <c r="H199" s="5">
+        <v>110531645</v>
+      </c>
+      <c r="I199" s="6">
+        <v>16804736</v>
+      </c>
+      <c r="J199" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>7</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="3">
+        <v>52</v>
+      </c>
+      <c r="E200" s="3">
+        <v>25.69</v>
+      </c>
+      <c r="F200" s="5">
+        <v>100707865</v>
+      </c>
+      <c r="G200" s="5">
+        <v>3119288</v>
+      </c>
+      <c r="H200" s="5">
+        <v>120681853</v>
+      </c>
+      <c r="I200" s="6">
+        <v>11243878</v>
+      </c>
+      <c r="J200" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" s="3">
+        <v>54</v>
+      </c>
+      <c r="E201" s="3">
+        <v>26.39</v>
+      </c>
+      <c r="F201" s="5">
+        <v>110121914</v>
+      </c>
+      <c r="G201" s="5">
+        <v>12550074</v>
+      </c>
+      <c r="H201" s="5">
+        <v>127458573</v>
+      </c>
+      <c r="I201" s="6">
+        <v>8853340</v>
+      </c>
+      <c r="J201" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>9</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202" s="3">
+        <v>52</v>
+      </c>
+      <c r="E202" s="3">
+        <v>26.37</v>
+      </c>
+      <c r="F202" s="5">
+        <v>92938874</v>
+      </c>
+      <c r="G202" s="5">
+        <v>8141422</v>
+      </c>
+      <c r="H202" s="5">
+        <v>127066245</v>
+      </c>
+      <c r="I202" s="6">
+        <v>7964686</v>
+      </c>
+      <c r="J202" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>10</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D203" s="3">
+        <v>53</v>
+      </c>
+      <c r="E203" s="3">
+        <v>26.98</v>
+      </c>
+      <c r="F203" s="5">
+        <v>96535491</v>
+      </c>
+      <c r="G203" s="5">
+        <v>11883003</v>
+      </c>
+      <c r="H203" s="5">
+        <v>133202250</v>
+      </c>
+      <c r="I203" s="6">
+        <v>7662741</v>
+      </c>
+      <c r="J203" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>11</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D204" s="3">
+        <v>51</v>
+      </c>
+      <c r="E204" s="3">
+        <v>26.04</v>
+      </c>
+      <c r="F204" s="5">
+        <v>91995376</v>
+      </c>
+      <c r="G204" s="5">
+        <v>14407084</v>
+      </c>
+      <c r="H204" s="5">
+        <v>127714333</v>
+      </c>
+      <c r="I204" s="6">
+        <v>7597389</v>
+      </c>
+      <c r="J204" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>12</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D205" s="3">
+        <v>52</v>
+      </c>
+      <c r="E205" s="3">
+        <v>27.17</v>
+      </c>
+      <c r="F205" s="5">
+        <v>92369539</v>
+      </c>
+      <c r="G205" s="5">
+        <v>18449362</v>
+      </c>
+      <c r="H205" s="5">
+        <v>120046145</v>
+      </c>
+      <c r="I205" s="6">
+        <v>7517270</v>
+      </c>
+      <c r="J205" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>13</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D206" s="3">
+        <v>54</v>
+      </c>
+      <c r="E206" s="3">
+        <v>26.33</v>
+      </c>
+      <c r="F206" s="5">
+        <v>56659660</v>
+      </c>
+      <c r="G206" s="5">
+        <v>55371535</v>
+      </c>
+      <c r="H206" s="5">
+        <v>121534233</v>
+      </c>
+      <c r="I206" s="6">
+        <v>6252808</v>
+      </c>
+      <c r="J206" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>14</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D207" s="3">
+        <v>53</v>
+      </c>
+      <c r="E207" s="3">
+        <v>25.85</v>
+      </c>
+      <c r="F207" s="5">
+        <v>84784241</v>
+      </c>
+      <c r="G207" s="5">
+        <v>16932929</v>
+      </c>
+      <c r="H207" s="5">
+        <v>124037085</v>
+      </c>
+      <c r="I207" s="6">
+        <v>6219259</v>
+      </c>
+      <c r="J207" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>15</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="3">
+        <v>51</v>
+      </c>
+      <c r="E208" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="F208" s="5">
+        <v>108616465</v>
+      </c>
+      <c r="G208" s="5">
+        <v>5256877</v>
+      </c>
+      <c r="H208" s="5">
+        <v>122183675</v>
+      </c>
+      <c r="I208" s="6">
+        <v>4693644</v>
+      </c>
+      <c r="J208" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>16</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D209" s="3">
+        <v>54</v>
+      </c>
+      <c r="E209" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="F209" s="5">
+        <v>80633014</v>
+      </c>
+      <c r="G209" s="5">
+        <v>23236993</v>
+      </c>
+      <c r="H209" s="5">
+        <v>122960176</v>
+      </c>
+      <c r="I209" s="6">
+        <v>4672561</v>
+      </c>
+      <c r="J209" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>17</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="3">
+        <v>54</v>
+      </c>
+      <c r="E210" s="3">
+        <v>25.89</v>
+      </c>
+      <c r="F210" s="5">
+        <v>72038158</v>
+      </c>
+      <c r="G210" s="5">
+        <v>16379985</v>
+      </c>
+      <c r="H210" s="5">
+        <v>116240089</v>
+      </c>
+      <c r="I210" s="6">
+        <v>4359067</v>
+      </c>
+      <c r="J210" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>18</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D211" s="3">
+        <v>54</v>
+      </c>
+      <c r="E211" s="3">
+        <v>25.87</v>
+      </c>
+      <c r="F211" s="5">
+        <v>101503464</v>
+      </c>
+      <c r="G211" s="5">
+        <v>8368013</v>
+      </c>
+      <c r="H211" s="5">
+        <v>133725553</v>
+      </c>
+      <c r="I211" s="6">
+        <v>4082572</v>
+      </c>
+      <c r="J211" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>19</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D212" s="3">
+        <v>53</v>
+      </c>
+      <c r="E212" s="3">
+        <v>26.34</v>
+      </c>
+      <c r="F212" s="5">
+        <v>94062621</v>
+      </c>
+      <c r="G212" s="5">
+        <v>12298555</v>
+      </c>
+      <c r="H212" s="5">
+        <v>120452285</v>
+      </c>
+      <c r="I212" s="6">
+        <v>3665563</v>
+      </c>
+      <c r="J212" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>20</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D213" s="3">
+        <v>53</v>
+      </c>
+      <c r="E213" s="3">
+        <v>26.75</v>
+      </c>
+      <c r="F213" s="5">
+        <v>88700032</v>
+      </c>
+      <c r="G213" s="5">
+        <v>5291972</v>
+      </c>
+      <c r="H213" s="5">
+        <v>107385220</v>
+      </c>
+      <c r="I213" s="6">
+        <v>3301013</v>
+      </c>
+      <c r="J213" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>21</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D214" s="3">
+        <v>55</v>
+      </c>
+      <c r="E214" s="3">
+        <v>27.18</v>
+      </c>
+      <c r="F214" s="5">
+        <v>101899959</v>
+      </c>
+      <c r="G214" s="5">
+        <v>6199751</v>
+      </c>
+      <c r="H214" s="5">
+        <v>127169835</v>
+      </c>
+      <c r="I214" s="6">
+        <v>2843420</v>
+      </c>
+      <c r="J214" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>22</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D215" s="3">
+        <v>52</v>
+      </c>
+      <c r="E215" s="3">
+        <v>26.73</v>
+      </c>
+      <c r="F215" s="5">
+        <v>91836977</v>
+      </c>
+      <c r="G215" s="5">
+        <v>14829672</v>
+      </c>
+      <c r="H215" s="5">
+        <v>119769260</v>
+      </c>
+      <c r="I215" s="6">
+        <v>2821757</v>
+      </c>
+      <c r="J215" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>23</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" s="3">
+        <v>53</v>
+      </c>
+      <c r="E216" s="3">
+        <v>25.83</v>
+      </c>
+      <c r="F216" s="5">
+        <v>77438733</v>
+      </c>
+      <c r="G216" s="5">
+        <v>6812448</v>
+      </c>
+      <c r="H216" s="5">
+        <v>123826813</v>
+      </c>
+      <c r="I216" s="6">
+        <v>2323913</v>
+      </c>
+      <c r="J216" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>24</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217" s="3">
+        <v>54</v>
+      </c>
+      <c r="E217" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="F217" s="5">
+        <v>93318045</v>
+      </c>
+      <c r="G217" s="5">
+        <v>5880872</v>
+      </c>
+      <c r="H217" s="5">
+        <v>123794167</v>
+      </c>
+      <c r="I217" s="6">
+        <v>1929070</v>
+      </c>
+      <c r="J217" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>25</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D218" s="3">
+        <v>53</v>
+      </c>
+      <c r="E218" s="3">
+        <v>26.51</v>
+      </c>
+      <c r="F218" s="5">
+        <v>89778071</v>
+      </c>
+      <c r="G218" s="5">
+        <v>17155771</v>
+      </c>
+      <c r="H218" s="5">
+        <v>122214225</v>
+      </c>
+      <c r="I218" s="6">
+        <v>1672075</v>
+      </c>
+      <c r="J218" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>26</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" s="3">
+        <v>54</v>
+      </c>
+      <c r="E219" s="3">
+        <v>26.07</v>
+      </c>
+      <c r="F219" s="5">
+        <v>117391509</v>
+      </c>
+      <c r="G219" s="5">
+        <v>3975523</v>
+      </c>
+      <c r="H219" s="5">
+        <v>129239778</v>
+      </c>
+      <c r="I219" s="6">
+        <v>1657706</v>
+      </c>
+      <c r="J219" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>27</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" s="3">
+        <v>52</v>
+      </c>
+      <c r="E220" s="3">
+        <v>25.94</v>
+      </c>
+      <c r="F220" s="5">
+        <v>114803016</v>
+      </c>
+      <c r="G220" s="5">
+        <v>19028711</v>
+      </c>
+      <c r="H220" s="5">
+        <v>136631412</v>
+      </c>
+      <c r="I220" s="6">
+        <v>1468615</v>
+      </c>
+      <c r="J220" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>28</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D221" s="3">
+        <v>54</v>
+      </c>
+      <c r="E221" s="3">
+        <v>26.69</v>
+      </c>
+      <c r="F221" s="5">
+        <v>96309954</v>
+      </c>
+      <c r="G221" s="5">
+        <v>10959576</v>
+      </c>
+      <c r="H221" s="5">
+        <v>125459344</v>
+      </c>
+      <c r="I221" s="6">
+        <v>67467</v>
+      </c>
+      <c r="J221" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>29</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" s="3">
+        <v>53</v>
+      </c>
+      <c r="E222" s="3">
+        <v>26.26</v>
+      </c>
+      <c r="F222" s="5">
+        <v>103969958</v>
+      </c>
+      <c r="G222" s="5">
+        <v>17514344</v>
+      </c>
+      <c r="H222" s="5">
+        <v>124106848</v>
+      </c>
+      <c r="I222" s="6">
+        <v>-124417</v>
+      </c>
+      <c r="J222" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>30</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D223" s="3">
+        <v>53</v>
+      </c>
+      <c r="E223" s="3">
+        <v>25.09</v>
+      </c>
+      <c r="F223" s="5">
+        <v>69722934</v>
+      </c>
+      <c r="G223" s="5">
+        <v>14665104</v>
+      </c>
+      <c r="H223" s="5">
+        <v>124333057</v>
+      </c>
+      <c r="I223" s="6">
+        <v>-1062720</v>
+      </c>
+      <c r="J223" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>31</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D224" s="3">
+        <v>53</v>
+      </c>
+      <c r="E224" s="3">
+        <v>26.66</v>
+      </c>
+      <c r="F224" s="5">
+        <v>98729480</v>
+      </c>
+      <c r="G224" s="5">
+        <v>10847687</v>
+      </c>
+      <c r="H224" s="5">
+        <v>129046015</v>
+      </c>
+      <c r="I224" s="6">
+        <v>-3531741</v>
+      </c>
+      <c r="J224" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>32</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" s="3">
+        <v>55</v>
+      </c>
+      <c r="E225" s="3">
+        <v>26.69</v>
+      </c>
+      <c r="F225" s="5">
+        <v>94626902</v>
+      </c>
+      <c r="G225" s="5">
+        <v>8936393</v>
+      </c>
+      <c r="H225" s="5">
+        <v>129256255</v>
+      </c>
+      <c r="I225" s="6">
+        <v>-4564971</v>
+      </c>
+      <c r="J225" s="1">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -6332,6 +8403,70 @@
     <hyperlink ref="B159" r:id="rId126" display="https://www.spotrac.com/redirect/team/22/cap-2015/" xr:uid="{A6E2FF81-8E08-40C3-8E13-BD2EEED32A06}"/>
     <hyperlink ref="B160" r:id="rId127" display="https://www.spotrac.com/redirect/team/10/cap-2015/" xr:uid="{99F03480-13A9-4E18-887D-1CBA810E1EC2}"/>
     <hyperlink ref="B161" r:id="rId128" display="https://www.spotrac.com/redirect/team/28/cap-2015/" xr:uid="{561A12FC-A279-468D-A41C-627EDB42BAED}"/>
+    <hyperlink ref="B162" r:id="rId129" display="https://www.spotrac.com/redirect/team/14/cap-2014/" xr:uid="{5F2215A6-C87D-DC4D-9660-343BA77B3EBB}"/>
+    <hyperlink ref="B163" r:id="rId130" display="https://www.spotrac.com/redirect/team/7/cap-2014/" xr:uid="{B5F685C8-D5E1-6B44-89CF-E6D00CCDFB65}"/>
+    <hyperlink ref="B164" r:id="rId131" display="https://www.spotrac.com/redirect/team/24/cap-2014/" xr:uid="{B57C2977-97B2-C048-9D00-3479471A164E}"/>
+    <hyperlink ref="B165" r:id="rId132" display="https://www.spotrac.com/redirect/team/25/cap-2014/" xr:uid="{CABE368F-491D-C748-AE97-A9D383DA5A69}"/>
+    <hyperlink ref="B166" r:id="rId133" display="https://www.spotrac.com/redirect/team/16/cap-2014/" xr:uid="{A2ECC38A-4494-6748-B603-11102180FDCC}"/>
+    <hyperlink ref="B167" r:id="rId134" display="https://www.spotrac.com/redirect/team/6/cap-2014/" xr:uid="{F142FB0F-2138-C44C-A89B-5639879F3B16}"/>
+    <hyperlink ref="B168" r:id="rId135" display="https://www.spotrac.com/redirect/team/13/cap-2014/" xr:uid="{BB848DA4-378B-1D47-801C-3FBAD203A9E8}"/>
+    <hyperlink ref="B169" r:id="rId136" display="https://www.spotrac.com/redirect/team/19/cap-2014/" xr:uid="{EABC58C3-4CE8-4A4C-A747-C9FC80530034}"/>
+    <hyperlink ref="B170" r:id="rId137" display="https://www.spotrac.com/redirect/team/11/cap-2014/" xr:uid="{9DFDD964-2953-F644-9C37-83A9409723A2}"/>
+    <hyperlink ref="B171" r:id="rId138" display="https://www.spotrac.com/redirect/team/3/cap-2014/" xr:uid="{D30CED5D-DB0C-0640-9631-D56026A92C8F}"/>
+    <hyperlink ref="B172" r:id="rId139" display="https://www.spotrac.com/redirect/team/17/cap-2014/" xr:uid="{C0822D52-72B8-6342-BB9B-FD9CC460CBCF}"/>
+    <hyperlink ref="B173" r:id="rId140" display="https://www.spotrac.com/redirect/team/28/cap-2014/" xr:uid="{299497F9-D6D1-7D46-81DB-000CC6DFA9AA}"/>
+    <hyperlink ref="B174" r:id="rId141" display="https://www.spotrac.com/redirect/team/4/cap-2014/" xr:uid="{B3970317-DBD4-6943-B9E9-6B3D5A4546CE}"/>
+    <hyperlink ref="B175" r:id="rId142" display="https://www.spotrac.com/redirect/team/21/cap-2014/" xr:uid="{023B8DD2-E2DC-A346-9930-7EA654184C46}"/>
+    <hyperlink ref="B176" r:id="rId143" display="https://www.spotrac.com/redirect/team/27/cap-2014/" xr:uid="{4FE8537C-54E3-5D4B-8662-2E54BE4D8D44}"/>
+    <hyperlink ref="B177" r:id="rId144" display="https://www.spotrac.com/redirect/team/8/cap-2014/" xr:uid="{FC33D6E9-790B-7846-B8F3-80E8AB4BF8B9}"/>
+    <hyperlink ref="B178" r:id="rId145" display="https://www.spotrac.com/redirect/team/20/cap-2014/" xr:uid="{340BE159-3975-1D46-9210-DECE1A38C6A3}"/>
+    <hyperlink ref="B179" r:id="rId146" display="https://www.spotrac.com/redirect/team/62/cap-2014/" xr:uid="{08697614-B9AE-DC4C-BEEF-399833051966}"/>
+    <hyperlink ref="B180" r:id="rId147" display="https://www.spotrac.com/redirect/team/2/cap-2014/" xr:uid="{9BAE8121-77A5-3A44-BB51-3BDAF5029B97}"/>
+    <hyperlink ref="B181" r:id="rId148" display="https://www.spotrac.com/redirect/team/1/cap-2014/" xr:uid="{EEE37A40-06E5-D849-8ADD-7D2F2934705E}"/>
+    <hyperlink ref="B182" r:id="rId149" display="https://www.spotrac.com/redirect/team/12/cap-2014/" xr:uid="{23CA0DBB-085D-DC47-8926-C0C13B1F32A6}"/>
+    <hyperlink ref="B183" r:id="rId150" display="https://www.spotrac.com/redirect/team/18/cap-2014/" xr:uid="{DD75F8D5-18B4-EC42-B2EB-B890EF98018C}"/>
+    <hyperlink ref="B184" r:id="rId151" display="https://www.spotrac.com/redirect/team/30/cap-2014/" xr:uid="{B0E825B9-8B3A-584A-BEC5-BBDF1BAA4960}"/>
+    <hyperlink ref="B185" r:id="rId152" display="https://www.spotrac.com/redirect/team/15/cap-2014/" xr:uid="{B050C355-E92E-D44D-B3B8-8C17FB060FFD}"/>
+    <hyperlink ref="B186" r:id="rId153" display="https://www.spotrac.com/redirect/team/5/cap-2014/" xr:uid="{57BCE5B3-A4F9-9D4C-BE71-76FCAE1A4C37}"/>
+    <hyperlink ref="B187" r:id="rId154" display="https://www.spotrac.com/redirect/team/9/cap-2014/" xr:uid="{4FD5FAFC-B407-B74A-9DF9-6E35CE481A2E}"/>
+    <hyperlink ref="B188" r:id="rId155" display="https://www.spotrac.com/redirect/team/22/cap-2014/" xr:uid="{B31E2703-6B37-A24A-89AA-444E60D13449}"/>
+    <hyperlink ref="B189" r:id="rId156" display="https://www.spotrac.com/redirect/team/26/cap-2014/" xr:uid="{A5F90BFF-5E11-C04E-ADE2-E386B7D9EDD1}"/>
+    <hyperlink ref="B190" r:id="rId157" display="https://www.spotrac.com/redirect/team/29/cap-2014/" xr:uid="{387940AE-CE80-9B4E-93B3-B3D33BD042C9}"/>
+    <hyperlink ref="B191" r:id="rId158" display="https://www.spotrac.com/redirect/team/23/cap-2014/" xr:uid="{F6FEB964-B6E2-E841-ABC2-E2609906FEFF}"/>
+    <hyperlink ref="B192" r:id="rId159" display="https://www.spotrac.com/redirect/team/10/cap-2014/" xr:uid="{717FF4B4-CC2E-9A4E-807E-DEE0F26D5037}"/>
+    <hyperlink ref="B193" r:id="rId160" display="https://www.spotrac.com/redirect/team/31/cap-2014/" xr:uid="{19B6E4E4-1827-6B49-9BE5-A62A1122AC8A}"/>
+    <hyperlink ref="B194" r:id="rId161" display="https://www.spotrac.com/redirect/team/7/cap-2013/" xr:uid="{D6DF88BB-8109-F54D-A479-E38AD48FF109}"/>
+    <hyperlink ref="B195" r:id="rId162" display="https://www.spotrac.com/redirect/team/14/cap-2013/" xr:uid="{53741D8F-2006-1443-A7F3-CC40481FFEE6}"/>
+    <hyperlink ref="B196" r:id="rId163" display="https://www.spotrac.com/redirect/team/25/cap-2013/" xr:uid="{588F8E67-5391-9B40-A31A-DE1F87F3B123}"/>
+    <hyperlink ref="B197" r:id="rId164" display="https://www.spotrac.com/redirect/team/62/cap-2013/" xr:uid="{9463B0BF-5774-984D-A4AE-29607F7A462F}"/>
+    <hyperlink ref="B198" r:id="rId165" display="https://www.spotrac.com/redirect/team/19/cap-2013/" xr:uid="{4AA49276-F07F-F244-8221-CAE5FE063D04}"/>
+    <hyperlink ref="B199" r:id="rId166" display="https://www.spotrac.com/redirect/team/4/cap-2013/" xr:uid="{13F5DD9A-044E-CD41-A5F8-D752DE038AE1}"/>
+    <hyperlink ref="B200" r:id="rId167" display="https://www.spotrac.com/redirect/team/11/cap-2013/" xr:uid="{76383EF3-3B00-EE43-BCB7-C3E408FBAD2E}"/>
+    <hyperlink ref="B201" r:id="rId168" display="https://www.spotrac.com/redirect/team/16/cap-2013/" xr:uid="{D535E139-3B6C-7E4B-AAC6-499FB9A3CC21}"/>
+    <hyperlink ref="B202" r:id="rId169" display="https://www.spotrac.com/redirect/team/6/cap-2013/" xr:uid="{205F38AA-0AEE-C04A-85DD-BB1E13D2F14F}"/>
+    <hyperlink ref="B203" r:id="rId170" display="https://www.spotrac.com/redirect/team/9/cap-2013/" xr:uid="{02751DB6-729B-5441-A39D-C06F8FD04914}"/>
+    <hyperlink ref="B204" r:id="rId171" display="https://www.spotrac.com/redirect/team/30/cap-2013/" xr:uid="{432FC14E-6D6A-DD42-B544-4F2848485B13}"/>
+    <hyperlink ref="B205" r:id="rId172" display="https://www.spotrac.com/redirect/team/1/cap-2013/" xr:uid="{E2457A55-831E-A948-9A94-7061D733F059}"/>
+    <hyperlink ref="B206" r:id="rId173" display="https://www.spotrac.com/redirect/team/17/cap-2013/" xr:uid="{7E75DB3F-843A-DA40-81D1-C4D49105DF13}"/>
+    <hyperlink ref="B207" r:id="rId174" display="https://www.spotrac.com/redirect/team/21/cap-2013/" xr:uid="{CA8EB661-FD6D-BB43-BDE0-1F309790D8B7}"/>
+    <hyperlink ref="B208" r:id="rId175" display="https://www.spotrac.com/redirect/team/27/cap-2013/" xr:uid="{7BAB1472-A3EF-B34A-98FB-45C8158EFBDC}"/>
+    <hyperlink ref="B209" r:id="rId176" display="https://www.spotrac.com/redirect/team/24/cap-2013/" xr:uid="{8AD28D76-7013-F64B-BB03-9D4CAAC8C8E9}"/>
+    <hyperlink ref="B210" r:id="rId177" display="https://www.spotrac.com/redirect/team/8/cap-2013/" xr:uid="{5C3234D5-73CA-8E44-A8C8-F64C3EF3A3F3}"/>
+    <hyperlink ref="B211" r:id="rId178" display="https://www.spotrac.com/redirect/team/28/cap-2013/" xr:uid="{8AD68544-BFDD-4240-9054-EC93CE2E9BF7}"/>
+    <hyperlink ref="B212" r:id="rId179" display="https://www.spotrac.com/redirect/team/26/cap-2013/" xr:uid="{54CB3AE8-F339-004C-8469-516FD6900F40}"/>
+    <hyperlink ref="B213" r:id="rId180" display="https://www.spotrac.com/redirect/team/31/cap-2013/" xr:uid="{A21C72E8-0550-C14F-BE60-C47619929727}"/>
+    <hyperlink ref="B214" r:id="rId181" display="https://www.spotrac.com/redirect/team/5/cap-2013/" xr:uid="{6282B40A-DCE3-BA44-8A24-396FFC292C9E}"/>
+    <hyperlink ref="B215" r:id="rId182" display="https://www.spotrac.com/redirect/team/10/cap-2013/" xr:uid="{2B21945C-37EE-6547-9DF9-87FE7485DFD8}"/>
+    <hyperlink ref="B216" r:id="rId183" display="https://www.spotrac.com/redirect/team/12/cap-2013/" xr:uid="{E1A04E88-18F2-3849-919C-58E5DAF21B05}"/>
+    <hyperlink ref="B217" r:id="rId184" display="https://www.spotrac.com/redirect/team/22/cap-2013/" xr:uid="{D612F774-1310-4E41-9966-1BE1555D3DB7}"/>
+    <hyperlink ref="B218" r:id="rId185" display="https://www.spotrac.com/redirect/team/2/cap-2013/" xr:uid="{002039E1-CCED-A945-9FA5-747E85142C78}"/>
+    <hyperlink ref="B219" r:id="rId186" display="https://www.spotrac.com/redirect/team/20/cap-2013/" xr:uid="{ECDA8E8B-899E-D54D-8335-710296FE4211}"/>
+    <hyperlink ref="B220" r:id="rId187" display="https://www.spotrac.com/redirect/team/15/cap-2013/" xr:uid="{DA6ABB2E-C494-3C4F-839F-639B99D05492}"/>
+    <hyperlink ref="B221" r:id="rId188" display="https://www.spotrac.com/redirect/team/18/cap-2013/" xr:uid="{D0479ED0-9850-9A44-BB41-F5CC54261B25}"/>
+    <hyperlink ref="B222" r:id="rId189" display="https://www.spotrac.com/redirect/team/3/cap-2013/" xr:uid="{E4F64D1A-47E4-C942-9974-4414B7D144BE}"/>
+    <hyperlink ref="B223" r:id="rId190" display="https://www.spotrac.com/redirect/team/29/cap-2013/" xr:uid="{1755004B-4C15-E44D-A689-DC826B45A410}"/>
+    <hyperlink ref="B224" r:id="rId191" display="https://www.spotrac.com/redirect/team/13/cap-2013/" xr:uid="{2752587C-181F-BA48-8214-AF7BAE635A9F}"/>
+    <hyperlink ref="B225" r:id="rId192" display="https://www.spotrac.com/redirect/team/23/cap-2013/" xr:uid="{31455E16-E88C-D14A-B41E-C57551B11391}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6535,20 +8670,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="94f4863c-85d6-4275-8629-34a0799ce147" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="94f4863c-85d6-4275-8629-34a0799ce147" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6571,19 +8706,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62E96B3-97E5-4FB5-9F34-5E8FE635D6F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B66F-B26E-4DE2-9A08-C26058C69266}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="94f4863c-85d6-4275-8629-34a0799ce147"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE39B66F-B26E-4DE2-9A08-C26058C69266}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62E96B3-97E5-4FB5-9F34-5E8FE635D6F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="94f4863c-85d6-4275-8629-34a0799ce147"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7e46a899-c18e-4947-88eb-fe22c50a6a43"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
